--- a/specs/excel/GameConfig.xlsx
+++ b/specs/excel/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11780"/>
+    <workbookView windowWidth="28000" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>eConfigKey</t>
+    <t>EConfigKey</t>
   </si>
   <si>
     <t>Bacepool_On</t>
@@ -85,10 +85,10 @@
     <t>Proportion</t>
   </si>
   <si>
-    <t>[12,5,3]</t>
-  </si>
-  <si>
-    <t>分配比例</t>
+    <t>[5500,2500,1500]</t>
+  </si>
+  <si>
+    <t>三个池子概率(万分比,池子排序由高到低)</t>
   </si>
   <si>
     <t>Brokerage</t>
@@ -154,11 +154,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -175,9 +189,116 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,77 +310,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,51 +331,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -327,25 +341,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,61 +443,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,54 +515,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -478,36 +522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,11 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,41 +570,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +589,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -619,17 +613,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,152 +652,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +805,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1133,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E16"/>
+      <selection activeCell="H14" sqref="I12 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1142,21 +1160,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" ht="17.55" spans="1:20">
       <c r="A2" s="1" t="s">
@@ -1174,23 +1192,23 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" ht="17.55" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,21 +1224,21 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" ht="17.55" spans="1:20">
       <c r="A4" s="1">
@@ -1232,27 +1250,27 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>15000</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" ht="17.55" spans="1:20">
       <c r="A5" s="1">
@@ -1264,29 +1282,29 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>5000</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" ht="17.55" spans="1:20">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" ht="18.35" spans="1:20">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1296,29 +1314,29 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" ht="17.55" spans="1:20">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" ht="18.35" spans="1:20">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1328,29 +1346,29 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1">
-        <v>550000</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" ht="17.55" spans="1:20">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" ht="18.35" spans="1:20">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1360,27 +1378,27 @@
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" ht="17.55" spans="1:20">
       <c r="A9" s="1">
@@ -1392,27 +1410,27 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
     </row>
     <row r="10" ht="17.55" spans="1:20">
       <c r="A10" s="1">
@@ -1424,123 +1442,123 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>500</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" ht="17.55" spans="1:20">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
     </row>
     <row r="12" ht="17.55" spans="1:20">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" ht="17.55" spans="1:20">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" ht="17.55" spans="1:20">
       <c r="A14" s="1">
@@ -1552,27 +1570,27 @@
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1">
-        <v>600</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>160</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" ht="17.55" spans="1:20">
       <c r="A15" s="1">
@@ -1584,27 +1602,27 @@
       <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1">
-        <v>1400</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="2">
+        <v>300</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" ht="17.55" spans="1:20">
       <c r="A16" s="1">
@@ -1616,159 +1634,159 @@
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2">
+        <v>500</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17" ht="17.55" spans="1:20">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
     </row>
     <row r="18" ht="17.55" spans="1:20">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" ht="17.55" spans="1:20">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" ht="17.55" spans="1:20">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21" ht="17.55" spans="1:20">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22" ht="17.55" spans="1:20">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/specs/excel/GameConfig.xlsx
+++ b/specs/excel/GameConfig.xlsx
@@ -19,7 +19,7 @@
     <t>字段ID</t>
   </si>
   <si>
-    <t>字段类型</t>
+    <t>字段类型#client</t>
   </si>
   <si>
     <t>字段名称</t>
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -195,8 +195,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,31 +282,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,23 +318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,59 +331,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,19 +347,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,157 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,26 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,8 +577,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,11 +607,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,148 +652,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,12 +1133,12 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="I12 H14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="17.4615384615385" customWidth="1"/>
     <col min="3" max="3" width="18.7692307692308" customWidth="1"/>
     <col min="4" max="4" width="9.38461538461539" customWidth="1"/>
     <col min="5" max="5" width="17.6153846153846" customWidth="1"/>
@@ -1176,7 +1176,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" ht="17.55" spans="1:20">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>

--- a/specs/excel/GameConfig.xlsx
+++ b/specs/excel/GameConfig.xlsx
@@ -28,7 +28,7 @@
     <t>字段值</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>描述#desc</t>
   </si>
   <si>
     <t>Id</t>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/specs/excel/GameConfig.xlsx
+++ b/specs/excel/GameConfig.xlsx
@@ -19,7 +19,7 @@
     <t>字段ID</t>
   </si>
   <si>
-    <t>字段类型#client</t>
+    <t>字段类型</t>
   </si>
   <si>
     <t>字段名称</t>
@@ -28,7 +28,7 @@
     <t>字段值</t>
   </si>
   <si>
-    <t>描述#desc</t>
+    <t>描述</t>
   </si>
   <si>
     <t>Id</t>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/specs/excel/GameConfig.xlsx
+++ b/specs/excel/GameConfig.xlsx
@@ -19,7 +19,7 @@
     <t>字段ID</t>
   </si>
   <si>
-    <t>字段类型</t>
+    <t>字段类型#client</t>
   </si>
   <si>
     <t>字段名称</t>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/specs/excel/GameConfig.xlsx
+++ b/specs/excel/GameConfig.xlsx
@@ -28,7 +28,7 @@
     <t>字段值</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>描述#desc</t>
   </si>
   <si>
     <t>Id</t>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
